--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E360312E-65A6-41C1-B600-46D5A51376AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D6520-A8CB-4AF7-BF56-8D4A47A45E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="WAN_201" sheetId="2" r:id="rId2"/>
-    <sheet name="WAN_301" sheetId="3" r:id="rId3"/>
+    <sheet name="WAN_301" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,36 +501,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,48 +586,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39ED6EA-CDDC-4E42-9516-C7608D533FE2}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="G44" sqref="B1:G44"/>
     </sheetView>
   </sheetViews>
@@ -1881,19 +1881,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1901,21 +1901,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1923,38 +1923,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1984,19 +1984,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2004,56 +2004,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2083,19 +2083,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2103,56 +2103,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2182,19 +2182,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2202,56 +2202,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2281,19 +2281,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2301,71 +2301,71 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="26"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="26"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="26"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="38"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2376,21 +2376,21 @@
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2398,11 +2398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3915E738-5CCE-4D5D-BEBD-B8AD88959681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C297E681-EF35-4E47-B127-B6032E8D9435}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2441,19 +2441,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2461,21 +2461,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2483,38 +2483,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -2544,19 +2544,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2564,56 +2564,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2643,19 +2643,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2663,56 +2663,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2742,19 +2742,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2762,56 +2762,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2841,10 +2841,10 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="39" t="s">
@@ -2861,8 +2861,8 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="42"/>
@@ -2871,8 +2871,8 @@
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="42"/>
@@ -2881,8 +2881,8 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="26"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="42"/>
@@ -2891,8 +2891,8 @@
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="43"/>
@@ -2901,7 +2901,7 @@
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="7"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -2909,6 +2909,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
@@ -2919,35 +2948,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="D39:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D6520-A8CB-4AF7-BF56-8D4A47A45E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAB91A-5588-4642-9D12-75EF4454998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -501,19 +501,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,13 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -544,48 +586,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,10 +1840,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39ED6EA-CDDC-4E42-9516-C7608D533FE2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G44" sqref="B1:G44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1881,19 +1884,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1901,21 +1904,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="28" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1923,38 +1926,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1984,19 +1987,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2004,56 +2007,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="29"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2083,19 +2086,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2103,56 +2106,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2182,19 +2185,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2202,56 +2205,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="29"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2281,19 +2284,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2301,71 +2304,71 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="29"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="29"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="29"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="30"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="24"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2376,21 +2379,21 @@
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2401,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C297E681-EF35-4E47-B127-B6032E8D9435}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -2441,19 +2444,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2461,21 +2464,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="28" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2483,38 +2486,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -2544,19 +2547,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2564,56 +2567,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="29"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2643,19 +2646,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2663,56 +2666,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2742,19 +2745,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2762,56 +2765,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="29"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2841,10 +2844,10 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="39" t="s">
@@ -2861,8 +2864,8 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="42"/>
@@ -2871,8 +2874,8 @@
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="42"/>
@@ -2881,8 +2884,8 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="42"/>
@@ -2891,8 +2894,8 @@
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="43"/>
@@ -2901,7 +2904,7 @@
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="7"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -2909,35 +2912,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
@@ -2948,6 +2922,35 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAB91A-5588-4642-9D12-75EF4454998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7F477-860C-4AEA-B804-9F795F54D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="51">
   <si>
     <t>3:00 - 4:00</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>PRESENTACIÓN DEL RETO CON EL SOCIO FORMADOR</t>
+  </si>
+  <si>
+    <t>EXAMEN MÓDULO 1</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,52 +504,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,37 +570,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,7 +1854,7 @@
   </sheetPr>
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G44"/>
     </sheetView>
   </sheetViews>
@@ -1884,19 +1893,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1904,21 +1913,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1926,38 +1935,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1983,23 +1992,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="29" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2007,56 +2016,58 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2086,19 +2097,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2106,56 +2117,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2185,19 +2196,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2205,56 +2216,58 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2280,23 +2293,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2304,81 +2317,64 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="26"/>
+      <c r="D41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="26"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="38"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G21:G25"/>
+  <mergeCells count="43">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C17"/>
@@ -2388,12 +2384,34 @@
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2404,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C297E681-EF35-4E47-B127-B6032E8D9435}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -2444,19 +2462,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2464,21 +2482,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2486,38 +2504,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -2547,19 +2565,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2567,56 +2585,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2646,19 +2664,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2666,56 +2684,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2745,19 +2763,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2765,56 +2783,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2844,19 +2862,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2864,54 +2882,83 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="42"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="42"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="42"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="43"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
@@ -2922,35 +2969,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7F477-860C-4AEA-B804-9F795F54D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A2DC2D-EC74-4799-8DFC-893B0EC295DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="51">
   <si>
     <t>3:00 - 4:00</t>
   </si>
@@ -205,25 +205,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>SEMANA 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (20 de Abril - 3 de Mayo)</t>
-    </r>
-  </si>
-  <si>
     <t>PRESENTACIÓN DEL RETO CON SOCIO FORMADOR</t>
-  </si>
-  <si>
-    <t>AVANCE DE RETO / RETROALIMENTACIÓN</t>
   </si>
   <si>
     <t>PRESENTACIÓN DE LA PROPUESTA DE SOLUCIÓN AL RETO / EVALUACIÓN DEL RETO (EVIDENCIA 2)</t>
@@ -311,6 +293,24 @@
   </si>
   <si>
     <t>EXAMEN MÓDULO 1</t>
+  </si>
+  <si>
+    <r>
+      <t>SEMANA 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (30 de Abril - 3 de Mayo)</t>
+    </r>
+  </si>
+  <si>
+    <t>PRESENTACIÓN DE PROPUESTA DE SOLUCIÓN AL RETO / EVALUACIÓN DEL RETO (EVIDENCIA 2)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -595,6 +595,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,8 +1857,8 @@
   </sheetPr>
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G44"/>
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1928,7 +1931,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -2009,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
@@ -2033,7 +2036,7 @@
       <c r="E14" s="38"/>
       <c r="F14" s="40"/>
       <c r="G14" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
@@ -2110,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2209,7 +2212,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -2272,7 +2275,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
@@ -2310,7 +2313,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
@@ -2420,555 +2423,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C297E681-EF35-4E47-B127-B6032E8D9435}">
-  <dimension ref="B1:G44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F44" sqref="41:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="3"/>
-    <col min="3" max="5" width="13.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="3"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="F30" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="19" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="5"/>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="7"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="44">
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C33:C35"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F32:F35"/>
     <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A2DC2D-EC74-4799-8DFC-893B0EC295DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A69A8-CD84-400C-98BF-05D9D4372D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -504,64 +504,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,34 +558,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,19 +1896,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1916,21 +1916,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1938,38 +1938,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1999,19 +1999,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2019,23 +2019,23 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="28" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2043,34 +2043,34 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2100,19 +2100,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2120,56 +2120,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2199,19 +2199,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2219,58 +2219,58 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="30"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2300,19 +2300,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2320,73 +2320,75 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="30"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="30"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2398,23 +2400,21 @@
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2423,18 +2423,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C297E681-EF35-4E47-B127-B6032E8D9435}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F44" sqref="41:F44"/>
+      <selection activeCell="F44" sqref="A1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3"/>
     <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2465,19 +2469,19 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2485,21 +2489,21 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2507,38 +2511,38 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2568,19 +2572,19 @@
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2588,23 +2592,23 @@
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2612,36 +2616,36 @@
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2671,19 +2675,19 @@
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2691,58 +2695,58 @@
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="30"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="31"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2772,19 +2776,19 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2792,58 +2796,58 @@
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="22" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
+      <c r="D33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="27"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2873,19 +2877,19 @@
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2893,71 +2897,69 @@
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="45"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="45"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="45"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="46"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D15:D17"/>
@@ -2974,19 +2976,21 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C39:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A69A8-CD84-400C-98BF-05D9D4372D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC63D36D-D328-46A4-B21B-0F3B69F382C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="52">
   <si>
     <t>3:00 - 4:00</t>
   </si>
@@ -311,6 +311,21 @@
   </si>
   <si>
     <t>PRESENTACIÓN DE PROPUESTA DE SOLUCIÓN AL RETO / EVALUACIÓN DEL RETO (EVIDENCIA 2)</t>
+  </si>
+  <si>
+    <r>
+      <t>SEMANA 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10 de Junio)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -334,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,52 +525,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -558,43 +591,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,8 +636,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,7 +1897,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="D39" sqref="D39:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1896,19 +1935,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1916,21 +1955,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1938,38 +1977,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1999,19 +2038,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2019,23 +2058,23 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="10" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2043,34 +2082,34 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2100,19 +2139,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2120,56 +2159,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="31" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2199,19 +2238,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2219,58 +2258,58 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2300,19 +2339,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2320,75 +2359,73 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="26"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="26"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2400,21 +2437,23 @@
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2426,20 +2465,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F44" sqref="A1:F44"/>
+      <selection activeCell="F48" sqref="A1:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3"/>
     <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2469,19 +2508,19 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2489,21 +2528,21 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2511,38 +2550,38 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2572,19 +2611,19 @@
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2592,23 +2631,23 @@
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2616,36 +2655,36 @@
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2675,19 +2714,19 @@
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2695,58 +2734,58 @@
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2776,19 +2815,19 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2796,58 +2835,58 @@
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="26"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="28" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="30"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2877,19 +2916,19 @@
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="E39" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2897,69 +2936,164 @@
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="44"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="45"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="45"/>
+      <c r="B43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="7"/>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="44"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+  <mergeCells count="50">
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D15:D17"/>
@@ -2976,21 +3110,19 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horarios/HorarioWAN_2024.xlsx
+++ b/Horarios/HorarioWAN_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC63D36D-D328-46A4-B21B-0F3B69F382C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00D278-A2DD-4089-A457-6B0399B17B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -525,64 +525,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,34 +579,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,20 +651,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1935,19 +1935,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1955,21 +1955,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1977,38 +1977,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -2038,19 +2038,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2058,23 +2058,23 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="28" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2082,34 +2082,34 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2139,19 +2139,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2159,56 +2159,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2238,19 +2238,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2258,58 +2258,58 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="30"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2339,19 +2339,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2359,73 +2359,75 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="30"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="30"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2437,23 +2439,21 @@
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2508,19 +2508,19 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2528,21 +2528,21 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2550,38 +2550,38 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2611,19 +2611,19 @@
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2631,23 +2631,23 @@
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2655,36 +2655,36 @@
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2714,19 +2714,19 @@
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2734,58 +2734,58 @@
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="30"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="31"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2815,19 +2815,19 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2835,58 +2835,58 @@
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="22" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
+      <c r="D33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="27"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2916,19 +2916,19 @@
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2936,54 +2936,54 @@
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="45"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="45"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="45"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="46"/>
+      <c r="B43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="44"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -3013,87 +3013,79 @@
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D15:D17"/>
@@ -3110,19 +3102,27 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="F48:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
